--- a/SendMail/SendMail/テスト仕様書_〇〇〇〇.xlsx
+++ b/SendMail/SendMail/テスト仕様書_〇〇〇〇.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20378"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\infosys\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\infosys\source\repos\MotegiHiroki\OOP2021\SendMail\SendMail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B597F417-9DD7-471E-A5D4-113BABE0515D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50A8329-986B-4954-A9E3-3A7CE932B537}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11400" tabRatio="476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1443,8 +1443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="74.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1740,7 +1740,9 @@
       <c r="E16" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="17"/>
+      <c r="F16" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="G16" s="3"/>
       <c r="H16" s="20"/>
       <c r="I16" s="21"/>
@@ -1761,7 +1763,9 @@
       <c r="E17" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="17"/>
+      <c r="F17" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="G17" s="3"/>
       <c r="H17" s="20"/>
       <c r="I17" s="21" t="s">
@@ -1780,7 +1784,9 @@
       <c r="E18" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="17"/>
+      <c r="F18" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="G18" s="3"/>
       <c r="H18" s="20"/>
       <c r="I18" s="21" t="s">
@@ -1803,7 +1809,9 @@
       <c r="E19" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="17"/>
+      <c r="F19" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="G19" s="3"/>
       <c r="H19" s="20"/>
       <c r="I19" s="5" t="s">
@@ -1822,7 +1830,9 @@
       <c r="E20" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="17"/>
+      <c r="F20" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="G20" s="3"/>
       <c r="H20" s="4"/>
       <c r="I20" s="5"/>
@@ -1839,7 +1849,9 @@
       <c r="E21" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="17"/>
+      <c r="F21" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="G21" s="3"/>
       <c r="H21" s="4"/>
       <c r="I21" s="5"/>
@@ -1856,7 +1868,9 @@
       <c r="E22" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="17"/>
+      <c r="F22" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="H22" s="4"/>
       <c r="I22" s="5" t="s">
@@ -1875,7 +1889,9 @@
       <c r="E23" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="17"/>
+      <c r="F23" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="G23" s="3"/>
       <c r="H23" s="4"/>
       <c r="I23" s="5"/>
